--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVN90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\05.HOANGTRAN\20160215_Bao cao khach hang ngung su dung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2306,22 +2306,10 @@
     <t>FromDate</t>
   </si>
   <si>
-    <t>Control này được truyền từ CRMF3010 nếu IsDate = 1</t>
-  </si>
-  <si>
     <t>Đến ngày</t>
   </si>
   <si>
     <t>ToDate</t>
-  </si>
-  <si>
-    <t>Theo kỳ</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Control này được truyền từ CRMF3010 nếu IsDate = 0</t>
   </si>
   <si>
     <t>ID Store</t>
@@ -2350,6 +2338,9 @@
   @ToAccountID         Varchar(50,
   @UserID  VARCHAR(50))
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control này được truyền từ CRMF3010 </t>
   </si>
 </sst>
 </file>
@@ -3193,108 +3184,135 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3356,6 +3374,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3367,14 +3394,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3385,9 +3406,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3399,33 +3417,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3509,18 +3500,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3540,8 +3531,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="923925"/>
-          <a:ext cx="8867775" cy="4276725"/>
+          <a:off x="0" y="600075"/>
+          <a:ext cx="8934450" cy="4076700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4352,65 +4343,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="142" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="141" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="141"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="141" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="137" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="112"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
       <c r="M13" s="113"/>
@@ -4421,56 +4412,56 @@
       <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="114"/>
       <c r="L16" s="114"/>
       <c r="M16" s="114"/>
@@ -4481,384 +4472,384 @@
       <c r="R16" s="114"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="133"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="133"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="134"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="130"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="130"/>
-      <c r="AL28" s="130"/>
-      <c r="AM28" s="130"/>
-      <c r="AN28" s="130"/>
-      <c r="AO28" s="130"/>
-      <c r="AP28" s="130"/>
-      <c r="AQ28" s="130"/>
-      <c r="AR28" s="130"/>
-      <c r="AS28" s="130"/>
-      <c r="AT28" s="130"/>
-      <c r="AU28" s="130"/>
-      <c r="AV28" s="130"/>
-      <c r="AW28" s="130"/>
-      <c r="AX28" s="130"/>
-      <c r="AY28" s="130"/>
-      <c r="AZ28" s="130"/>
-      <c r="BA28" s="130"/>
-      <c r="BB28" s="130"/>
-      <c r="BC28" s="130"/>
-      <c r="BD28" s="130"/>
-      <c r="BE28" s="130"/>
-      <c r="BF28" s="130"/>
-      <c r="BG28" s="130"/>
-      <c r="BH28" s="130"/>
-      <c r="BI28" s="130"/>
-      <c r="BJ28" s="130"/>
-      <c r="BK28" s="130"/>
-      <c r="BL28" s="130"/>
-      <c r="BM28" s="130"/>
-      <c r="BN28" s="130"/>
-      <c r="BO28" s="130"/>
-      <c r="BP28" s="130"/>
-      <c r="BQ28" s="130"/>
-      <c r="BR28" s="130"/>
-      <c r="BS28" s="130"/>
-      <c r="BT28" s="130"/>
-      <c r="BU28" s="130"/>
-      <c r="BV28" s="130"/>
-      <c r="BW28" s="130"/>
-      <c r="BX28" s="130"/>
-      <c r="BY28" s="130"/>
-      <c r="BZ28" s="130"/>
-      <c r="CA28" s="130"/>
-      <c r="CB28" s="130"/>
-      <c r="CC28" s="130"/>
-      <c r="CD28" s="130"/>
-      <c r="CE28" s="130"/>
-      <c r="CF28" s="130"/>
-      <c r="CG28" s="130"/>
-      <c r="CH28" s="130"/>
-      <c r="CI28" s="130"/>
-      <c r="CJ28" s="130"/>
-      <c r="CK28" s="130"/>
-      <c r="CL28" s="130"/>
-      <c r="CM28" s="130"/>
-      <c r="CN28" s="130"/>
-      <c r="CO28" s="130"/>
-      <c r="CP28" s="130"/>
-      <c r="CQ28" s="130"/>
-      <c r="CR28" s="130"/>
-      <c r="CS28" s="130"/>
-      <c r="CT28" s="130"/>
-      <c r="CU28" s="130"/>
-      <c r="CV28" s="130"/>
-      <c r="CW28" s="130"/>
-      <c r="CX28" s="130"/>
-      <c r="CY28" s="130"/>
-      <c r="CZ28" s="130"/>
-      <c r="DA28" s="130"/>
-      <c r="DB28" s="130"/>
-      <c r="DC28" s="130"/>
-      <c r="DD28" s="130"/>
-      <c r="DE28" s="130"/>
-      <c r="DF28" s="130"/>
-      <c r="DG28" s="130"/>
-      <c r="DH28" s="130"/>
-      <c r="DI28" s="130"/>
-      <c r="DJ28" s="130"/>
-      <c r="DK28" s="130"/>
-      <c r="DL28" s="130"/>
-      <c r="DM28" s="130"/>
-      <c r="DN28" s="130"/>
-      <c r="DO28" s="130"/>
-      <c r="DP28" s="130"/>
-      <c r="DQ28" s="130"/>
-      <c r="DR28" s="130"/>
-      <c r="DS28" s="130"/>
-      <c r="DT28" s="130"/>
-      <c r="DU28" s="130"/>
-      <c r="DV28" s="130"/>
-      <c r="DW28" s="130"/>
-      <c r="DX28" s="130"/>
-      <c r="DY28" s="130"/>
-      <c r="DZ28" s="130"/>
-      <c r="EA28" s="130"/>
-      <c r="EB28" s="130"/>
-      <c r="EC28" s="130"/>
-      <c r="ED28" s="130"/>
-      <c r="EE28" s="130"/>
-      <c r="EF28" s="130"/>
-      <c r="EG28" s="130"/>
-      <c r="EH28" s="130"/>
-      <c r="EI28" s="130"/>
-      <c r="EJ28" s="130"/>
-      <c r="EK28" s="130"/>
-      <c r="EL28" s="130"/>
-      <c r="EM28" s="130"/>
-      <c r="EN28" s="130"/>
-      <c r="EO28" s="130"/>
-      <c r="EP28" s="130"/>
-      <c r="EQ28" s="130"/>
-      <c r="ER28" s="130"/>
-      <c r="ES28" s="130"/>
-      <c r="ET28" s="130"/>
-      <c r="EU28" s="130"/>
-      <c r="EV28" s="130"/>
-      <c r="EW28" s="130"/>
-      <c r="EX28" s="130"/>
-      <c r="EY28" s="130"/>
-      <c r="EZ28" s="130"/>
-      <c r="FA28" s="130"/>
-      <c r="FB28" s="130"/>
-      <c r="FC28" s="130"/>
-      <c r="FD28" s="130"/>
-      <c r="FE28" s="130"/>
-      <c r="FF28" s="130"/>
-      <c r="FG28" s="130"/>
-      <c r="FH28" s="130"/>
-      <c r="FI28" s="130"/>
-      <c r="FJ28" s="130"/>
-      <c r="FK28" s="130"/>
-      <c r="FL28" s="130"/>
-      <c r="FM28" s="130"/>
-      <c r="FN28" s="130"/>
-      <c r="FO28" s="130"/>
-      <c r="FP28" s="130"/>
-      <c r="FQ28" s="130"/>
-      <c r="FR28" s="130"/>
-      <c r="FS28" s="130"/>
-      <c r="FT28" s="130"/>
-      <c r="FU28" s="130"/>
-      <c r="FV28" s="130"/>
-      <c r="FW28" s="130"/>
-      <c r="FX28" s="130"/>
-      <c r="FY28" s="130"/>
-      <c r="FZ28" s="130"/>
-      <c r="GA28" s="130"/>
-      <c r="GB28" s="130"/>
-      <c r="GC28" s="130"/>
-      <c r="GD28" s="130"/>
-      <c r="GE28" s="130"/>
-      <c r="GF28" s="130"/>
-      <c r="GG28" s="130"/>
-      <c r="GH28" s="130"/>
-      <c r="GI28" s="130"/>
-      <c r="GJ28" s="130"/>
-      <c r="GK28" s="130"/>
-      <c r="GL28" s="130"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="115"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="129"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="116"/>
       <c r="L30" s="116"/>
       <c r="M30" s="116"/>
@@ -4869,16 +4860,16 @@
       <c r="R30" s="116"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="129"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="116"/>
       <c r="L31" s="116"/>
       <c r="M31" s="116"/>
@@ -4890,6 +4881,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4903,28 +4916,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4951,14 +4942,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5151,11 +5142,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="195" t="s">
+      <c r="E27" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="196"/>
-      <c r="G27" s="197"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="206"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5462,7 +5453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5479,10 +5470,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5509,8 +5500,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5549,36 +5540,36 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="198">
+      <c r="A5" s="129">
         <v>1</v>
       </c>
-      <c r="B5" s="199">
+      <c r="B5" s="130">
         <v>1</v>
       </c>
       <c r="C5" s="37">
         <v>42418</v>
       </c>
-      <c r="D5" s="200" t="s">
+      <c r="D5" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="86">
@@ -5589,12 +5580,12 @@
       </c>
       <c r="C6" s="75"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="87">
@@ -5605,12 +5596,12 @@
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="88">
@@ -5621,12 +5612,12 @@
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="157"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="89">
@@ -5637,12 +5628,12 @@
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="90">
@@ -5653,12 +5644,12 @@
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="91">
@@ -5669,12 +5660,12 @@
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="92">
@@ -5685,12 +5676,12 @@
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="93">
@@ -5701,12 +5692,12 @@
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="94">
@@ -5717,12 +5708,12 @@
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5733,12 +5724,12 @@
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="86">
@@ -5749,12 +5740,12 @@
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="87">
@@ -5765,12 +5756,12 @@
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="88">
@@ -5781,12 +5772,12 @@
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="89">
@@ -5797,12 +5788,12 @@
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="90">
@@ -5813,12 +5804,12 @@
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="91">
@@ -5829,12 +5820,12 @@
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="92">
@@ -5845,12 +5836,12 @@
       </c>
       <c r="C22" s="76"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="93">
@@ -5861,12 +5852,12 @@
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="94">
@@ -5877,12 +5868,12 @@
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5893,12 +5884,12 @@
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5909,12 +5900,12 @@
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="86">
@@ -5925,12 +5916,12 @@
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="87">
@@ -5941,12 +5932,12 @@
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="88">
@@ -5957,12 +5948,12 @@
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="89">
@@ -5973,12 +5964,12 @@
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="90">
@@ -5989,12 +5980,12 @@
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="91">
@@ -6005,12 +5996,12 @@
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="92">
@@ -6021,12 +6012,12 @@
       </c>
       <c r="C33" s="76"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="93">
@@ -6037,12 +6028,12 @@
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="94">
@@ -6053,12 +6044,12 @@
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6069,12 +6060,12 @@
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="86">
@@ -6085,12 +6076,12 @@
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="87">
@@ -6101,12 +6092,12 @@
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="88">
@@ -6117,12 +6108,12 @@
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="89">
@@ -6133,12 +6124,12 @@
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="90">
@@ -6149,12 +6140,12 @@
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="91">
@@ -6165,23 +6156,32 @@
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6197,23 +6197,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6239,7 +6230,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6251,16 +6242,16 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="22" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6290,8 +6281,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6321,20 +6312,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="163" t="s">
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="164"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6345,10 +6336,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="172" t="s">
+      <c r="I5" s="181" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="173"/>
+      <c r="J5" s="182"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6359,8 +6350,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="184"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6371,8 +6362,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6383,8 +6374,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6395,8 +6386,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6407,8 +6398,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6419,10 +6410,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="163" t="s">
+      <c r="I11" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="164"/>
+      <c r="J11" s="173"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6433,10 +6424,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="175" t="s">
         <v>198</v>
       </c>
-      <c r="J12" s="167"/>
+      <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6447,8 +6438,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="169"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6459,8 +6450,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6471,8 +6462,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="169"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6483,8 +6474,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6495,8 +6486,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="169"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6507,8 +6498,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="169"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6519,8 +6510,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="169"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6531,8 +6522,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6543,8 +6534,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="169"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6555,8 +6546,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6567,8 +6558,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6579,8 +6570,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6591,8 +6582,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6603,8 +6594,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6615,8 +6606,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="169"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6627,8 +6618,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="169"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6639,8 +6630,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="169"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6651,8 +6642,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6663,8 +6654,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6675,8 +6666,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6687,8 +6678,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6699,8 +6690,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="169"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6711,8 +6702,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="169"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6723,8 +6714,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="169"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6735,8 +6726,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="169"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6747,8 +6738,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="169"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6759,8 +6750,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="169"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6771,8 +6762,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="169"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6783,8 +6774,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="169"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6795,8 +6786,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="169"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6807,8 +6798,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="171"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6836,13 +6827,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6867,13 +6858,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6881,15 +6872,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="178" t="s">
+      <c r="H1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="180" t="s">
+      <c r="I1" s="188"/>
+      <c r="J1" s="189" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="181"/>
-      <c r="L1" s="182"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="191"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6905,11 +6896,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6917,16 +6908,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180" t="str">
+      <c r="I2" s="188"/>
+      <c r="J2" s="189" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng ngưng sử dụng</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="182"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7424,7 +7415,7 @@
       <c r="N16" s="40"/>
       <c r="O16" s="126"/>
       <c r="P16" s="126" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="22.5">
@@ -7441,10 +7432,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="126" t="s">
         <v>203</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>204</v>
       </c>
       <c r="G17" s="126"/>
       <c r="H17" s="40"/>
@@ -7456,29 +7447,19 @@
       <c r="N17" s="40"/>
       <c r="O17" s="126"/>
       <c r="P17" s="126" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="34" customFormat="1" ht="22.5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
-        <v>14</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="33">
-        <v>51</v>
-      </c>
-      <c r="D18" s="33">
-        <v>6</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="126"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -7486,10 +7467,8 @@
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126" t="s">
-        <v>207</v>
-      </c>
+      <c r="O18" s="68"/>
+      <c r="P18" s="83"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -7500,7 +7479,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="59"/>
       <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
@@ -7508,19 +7487,19 @@
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="68"/>
+      <c r="O19" s="79"/>
       <c r="P19" s="83"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="59"/>
       <c r="F20" s="83"/>
-      <c r="G20" s="80"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
@@ -7528,12 +7507,12 @@
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="79"/>
+      <c r="O20" s="68"/>
       <c r="P20" s="83"/>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -7553,7 +7532,7 @@
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -7568,12 +7547,12 @@
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="68"/>
+      <c r="O22" s="83"/>
       <c r="P22" s="83"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -7588,59 +7567,59 @@
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="83"/>
+      <c r="O23" s="68"/>
       <c r="P23" s="83"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="59"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="83"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="59"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="60"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="60"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="79"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
@@ -7653,13 +7632,13 @@
     </row>
     <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
@@ -7673,7 +7652,7 @@
     </row>
     <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -7693,7 +7672,7 @@
     </row>
     <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -7713,7 +7692,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -7733,7 +7712,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -7753,7 +7732,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -7773,7 +7752,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -7793,7 +7772,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -7813,7 +7792,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7833,7 +7812,7 @@
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7853,7 +7832,7 @@
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7873,7 +7852,7 @@
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7893,7 +7872,7 @@
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7913,7 +7892,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7933,7 +7912,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7953,7 +7932,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7973,7 +7952,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -7993,7 +7972,7 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -8013,7 +7992,7 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -8033,7 +8012,7 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -8053,7 +8032,7 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -8073,14 +8052,14 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="40"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -8093,14 +8072,14 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="71"/>
       <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -8113,14 +8092,14 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71"/>
-      <c r="G50" s="40"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
@@ -8133,14 +8112,14 @@
     </row>
     <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
@@ -8153,7 +8132,7 @@
     </row>
     <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -8173,7 +8152,7 @@
     </row>
     <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -8193,7 +8172,7 @@
     </row>
     <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -8211,26 +8190,6 @@
       <c r="O54" s="60"/>
       <c r="P54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="33">
-        <v>50</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="32"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -8240,21 +8199,21 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26:O55 M25:N25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23:I55 I5:I16 I19:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I54 I5:I16 I18:I19">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G27:G55 G5:G6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L55">
-      <formula1>"I,O,I/O"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15 H19:H55">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G26:G54 G5:G6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15 H18:H54">
       <formula1>"Caption,Textbox,DateTimePicker,GridColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H17">
       <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
+      <formula1>"I,O,I/O"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9256,7 +9215,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9291,7 +9250,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
+      <c r="A2" s="198"/>
       <c r="B2" s="120"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9339,15 +9298,15 @@
       <c r="E4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -9357,11 +9316,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="124"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="194"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9371,11 +9330,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9385,11 +9344,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="189"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9399,11 +9358,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="189"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9413,11 +9372,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9427,11 +9386,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9441,11 +9400,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9455,11 +9414,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9469,11 +9428,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="189"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9483,11 +9442,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="189"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9497,11 +9456,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="189"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="194"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9511,11 +9470,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="189"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9525,11 +9484,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9539,11 +9498,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9553,11 +9512,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9567,11 +9526,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9581,11 +9540,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="194"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9595,11 +9554,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9609,11 +9568,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="194"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9623,11 +9582,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="194"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9637,11 +9596,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9651,11 +9610,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="194"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9665,11 +9624,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="189"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="194"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9679,11 +9638,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="189"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9693,11 +9652,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="189"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9707,11 +9666,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="189"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9721,11 +9680,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9735,11 +9694,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9756,11 +9715,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9777,11 +9736,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9798,11 +9757,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="189"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9819,11 +9778,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="189"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9840,11 +9799,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9861,11 +9820,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9882,11 +9841,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9903,11 +9862,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="189"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9924,11 +9883,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="189"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9945,11 +9904,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="189"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9966,11 +9925,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="189"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="194"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9987,11 +9946,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="189"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -10008,11 +9967,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="189"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10029,11 +9988,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="188"/>
-      <c r="J46" s="189"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10050,11 +10009,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="187"/>
-      <c r="I47" s="188"/>
-      <c r="J47" s="189"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10071,11 +10030,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="189"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="192"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10092,11 +10051,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="189"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="192"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="194"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10113,11 +10072,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="189"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="194"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10134,11 +10093,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="189"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="192"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10155,11 +10114,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="189"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="194"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10176,11 +10135,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="187"/>
-      <c r="I53" s="188"/>
-      <c r="J53" s="189"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="192"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="194"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10197,11 +10156,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="189"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="192"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="194"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10218,11 +10177,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="188"/>
-      <c r="J55" s="189"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="194"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10239,11 +10198,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="188"/>
-      <c r="J56" s="189"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10255,6 +10214,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10269,99 +10321,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10410,24 +10369,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="193" t="str">
+      <c r="J1" s="199" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="193"/>
+      <c r="K1" s="199"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10454,22 +10413,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="193" t="str">
+      <c r="J2" s="199" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="193"/>
+      <c r="K2" s="199"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10526,12 +10485,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="164"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="173"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10560,39 +10519,39 @@
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="204" t="s">
+      <c r="F5" s="132"/>
+      <c r="G5" s="133" t="s">
         <v>185</v>
       </c>
       <c r="H5" s="78" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J5" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="155" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="205" t="s">
+      <c r="K5" s="161" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="205" t="s">
+      <c r="P5" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="Q5" s="206" t="s">
+      <c r="Q5" s="135" t="s">
         <v>188</v>
       </c>
       <c r="R5" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="204" t="s">
-        <v>209</v>
+      <c r="S5" s="133" t="s">
+        <v>205</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
@@ -10610,10 +10569,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="192"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="202"/>
       <c r="O6" s="83"/>
       <c r="P6" s="84"/>
       <c r="Q6" s="73"/>
@@ -10635,10 +10594,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="78"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="192"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="202"/>
       <c r="O7" s="84"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="73"/>
@@ -10660,10 +10619,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="192"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="202"/>
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="73"/>
@@ -10685,10 +10644,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="192"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="202"/>
       <c r="O9" s="84"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="73"/>
@@ -10710,15 +10669,15 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="192"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="202"/>
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="73"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="204"/>
+      <c r="S10" s="133"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
     </row>
@@ -10728,16 +10687,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048142:Q1048576 Q5:Q10"/>
@@ -10783,10 +10742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10816,8 +10775,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10875,7 +10834,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -10956,7 +10915,7 @@
       <c r="A12" s="77"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -11042,7 +11001,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -11396,7 +11355,7 @@
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="77"/>
       <c r="C49" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
@@ -11893,10 +11852,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11926,8 +11885,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2264,20 +2264,6 @@
     <t>DivisionID</t>
   </si>
   <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
-@Period
-@FromAccountID @ToAccountID 
-@UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-@@Period
-@@FromAccountID @@ToAccountID
-Biến môi trường
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tạo tài liệu mới Customize Hoàng Trần
 In báo các khách hàng ngưng sự dụng </t>
   </si>
@@ -2327,20 +2313,30 @@
     <t>Thực thi @SQL0001 để mở tab để load  báo cáo Khách hàng ngưng sử dụng_CRMR30201</t>
   </si>
   <si>
+    <t xml:space="preserve">Control này được truyền từ CRMF3010 </t>
+  </si>
+  <si>
     <t xml:space="preserve">EXEC CRMP30201(
   @DivisionID       VARCHAR(50),  
   @DivisionIDList    NVARCHAR(2000), 
   @FromDate         DATETIME,
   @ToDate           DATETIME,
-  @IsDate           TINYINT,
-  @Period Nvarchar(max),
-  @FromAccountID       Varchar(50),
+   @FromAccountID       Varchar(50),
   @ToAccountID         Varchar(50,
   @UserID  VARCHAR(50))
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Control này được truyền từ CRMF3010 </t>
+    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   
+@FromAccountID @ToAccountID 
+@UserID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   
+@@FromAccountID @@ToAccountID
+Biến môi trường
+</t>
   </si>
 </sst>
 </file>
@@ -3199,15 +3195,33 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3253,23 +3267,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3310,9 +3309,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3374,6 +3370,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3382,29 +3390,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4343,65 +4339,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="112"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
       <c r="M13" s="113"/>
@@ -4412,56 +4408,56 @@
       <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="114"/>
       <c r="L16" s="114"/>
       <c r="M16" s="114"/>
@@ -4472,384 +4468,384 @@
       <c r="R16" s="114"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="137"/>
+      <c r="AP28" s="137"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="137"/>
+      <c r="AW28" s="137"/>
+      <c r="AX28" s="137"/>
+      <c r="AY28" s="137"/>
+      <c r="AZ28" s="137"/>
+      <c r="BA28" s="137"/>
+      <c r="BB28" s="137"/>
+      <c r="BC28" s="137"/>
+      <c r="BD28" s="137"/>
+      <c r="BE28" s="137"/>
+      <c r="BF28" s="137"/>
+      <c r="BG28" s="137"/>
+      <c r="BH28" s="137"/>
+      <c r="BI28" s="137"/>
+      <c r="BJ28" s="137"/>
+      <c r="BK28" s="137"/>
+      <c r="BL28" s="137"/>
+      <c r="BM28" s="137"/>
+      <c r="BN28" s="137"/>
+      <c r="BO28" s="137"/>
+      <c r="BP28" s="137"/>
+      <c r="BQ28" s="137"/>
+      <c r="BR28" s="137"/>
+      <c r="BS28" s="137"/>
+      <c r="BT28" s="137"/>
+      <c r="BU28" s="137"/>
+      <c r="BV28" s="137"/>
+      <c r="BW28" s="137"/>
+      <c r="BX28" s="137"/>
+      <c r="BY28" s="137"/>
+      <c r="BZ28" s="137"/>
+      <c r="CA28" s="137"/>
+      <c r="CB28" s="137"/>
+      <c r="CC28" s="137"/>
+      <c r="CD28" s="137"/>
+      <c r="CE28" s="137"/>
+      <c r="CF28" s="137"/>
+      <c r="CG28" s="137"/>
+      <c r="CH28" s="137"/>
+      <c r="CI28" s="137"/>
+      <c r="CJ28" s="137"/>
+      <c r="CK28" s="137"/>
+      <c r="CL28" s="137"/>
+      <c r="CM28" s="137"/>
+      <c r="CN28" s="137"/>
+      <c r="CO28" s="137"/>
+      <c r="CP28" s="137"/>
+      <c r="CQ28" s="137"/>
+      <c r="CR28" s="137"/>
+      <c r="CS28" s="137"/>
+      <c r="CT28" s="137"/>
+      <c r="CU28" s="137"/>
+      <c r="CV28" s="137"/>
+      <c r="CW28" s="137"/>
+      <c r="CX28" s="137"/>
+      <c r="CY28" s="137"/>
+      <c r="CZ28" s="137"/>
+      <c r="DA28" s="137"/>
+      <c r="DB28" s="137"/>
+      <c r="DC28" s="137"/>
+      <c r="DD28" s="137"/>
+      <c r="DE28" s="137"/>
+      <c r="DF28" s="137"/>
+      <c r="DG28" s="137"/>
+      <c r="DH28" s="137"/>
+      <c r="DI28" s="137"/>
+      <c r="DJ28" s="137"/>
+      <c r="DK28" s="137"/>
+      <c r="DL28" s="137"/>
+      <c r="DM28" s="137"/>
+      <c r="DN28" s="137"/>
+      <c r="DO28" s="137"/>
+      <c r="DP28" s="137"/>
+      <c r="DQ28" s="137"/>
+      <c r="DR28" s="137"/>
+      <c r="DS28" s="137"/>
+      <c r="DT28" s="137"/>
+      <c r="DU28" s="137"/>
+      <c r="DV28" s="137"/>
+      <c r="DW28" s="137"/>
+      <c r="DX28" s="137"/>
+      <c r="DY28" s="137"/>
+      <c r="DZ28" s="137"/>
+      <c r="EA28" s="137"/>
+      <c r="EB28" s="137"/>
+      <c r="EC28" s="137"/>
+      <c r="ED28" s="137"/>
+      <c r="EE28" s="137"/>
+      <c r="EF28" s="137"/>
+      <c r="EG28" s="137"/>
+      <c r="EH28" s="137"/>
+      <c r="EI28" s="137"/>
+      <c r="EJ28" s="137"/>
+      <c r="EK28" s="137"/>
+      <c r="EL28" s="137"/>
+      <c r="EM28" s="137"/>
+      <c r="EN28" s="137"/>
+      <c r="EO28" s="137"/>
+      <c r="EP28" s="137"/>
+      <c r="EQ28" s="137"/>
+      <c r="ER28" s="137"/>
+      <c r="ES28" s="137"/>
+      <c r="ET28" s="137"/>
+      <c r="EU28" s="137"/>
+      <c r="EV28" s="137"/>
+      <c r="EW28" s="137"/>
+      <c r="EX28" s="137"/>
+      <c r="EY28" s="137"/>
+      <c r="EZ28" s="137"/>
+      <c r="FA28" s="137"/>
+      <c r="FB28" s="137"/>
+      <c r="FC28" s="137"/>
+      <c r="FD28" s="137"/>
+      <c r="FE28" s="137"/>
+      <c r="FF28" s="137"/>
+      <c r="FG28" s="137"/>
+      <c r="FH28" s="137"/>
+      <c r="FI28" s="137"/>
+      <c r="FJ28" s="137"/>
+      <c r="FK28" s="137"/>
+      <c r="FL28" s="137"/>
+      <c r="FM28" s="137"/>
+      <c r="FN28" s="137"/>
+      <c r="FO28" s="137"/>
+      <c r="FP28" s="137"/>
+      <c r="FQ28" s="137"/>
+      <c r="FR28" s="137"/>
+      <c r="FS28" s="137"/>
+      <c r="FT28" s="137"/>
+      <c r="FU28" s="137"/>
+      <c r="FV28" s="137"/>
+      <c r="FW28" s="137"/>
+      <c r="FX28" s="137"/>
+      <c r="FY28" s="137"/>
+      <c r="FZ28" s="137"/>
+      <c r="GA28" s="137"/>
+      <c r="GB28" s="137"/>
+      <c r="GC28" s="137"/>
+      <c r="GD28" s="137"/>
+      <c r="GE28" s="137"/>
+      <c r="GF28" s="137"/>
+      <c r="GG28" s="137"/>
+      <c r="GH28" s="137"/>
+      <c r="GI28" s="137"/>
+      <c r="GJ28" s="137"/>
+      <c r="GK28" s="137"/>
+      <c r="GL28" s="137"/>
       <c r="GM28" s="115"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
       <c r="K30" s="116"/>
       <c r="L30" s="116"/>
       <c r="M30" s="116"/>
@@ -4860,16 +4856,16 @@
       <c r="R30" s="116"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
       <c r="K31" s="116"/>
       <c r="L31" s="116"/>
       <c r="M31" s="116"/>
@@ -4881,28 +4877,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4916,6 +4890,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5470,10 +5466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5500,8 +5496,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5540,14 +5536,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="129">
@@ -5562,14 +5558,14 @@
       <c r="D5" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="E5" s="167" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="86">
@@ -5580,12 +5576,12 @@
       </c>
       <c r="C6" s="75"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="87">
@@ -5596,12 +5592,12 @@
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="88">
@@ -5612,12 +5608,12 @@
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="89">
@@ -5628,12 +5624,12 @@
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="90">
@@ -5644,12 +5640,12 @@
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="91">
@@ -5660,12 +5656,12 @@
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="92">
@@ -5676,12 +5672,12 @@
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="93">
@@ -5692,12 +5688,12 @@
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="94">
@@ -5708,12 +5704,12 @@
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5724,12 +5720,12 @@
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="86">
@@ -5740,12 +5736,12 @@
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="87">
@@ -5756,12 +5752,12 @@
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="88">
@@ -5772,12 +5768,12 @@
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="89">
@@ -5788,12 +5784,12 @@
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="90">
@@ -5804,12 +5800,12 @@
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="91">
@@ -5820,12 +5816,12 @@
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="92">
@@ -5836,12 +5832,12 @@
       </c>
       <c r="C22" s="76"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="93">
@@ -5852,12 +5848,12 @@
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="94">
@@ -5868,12 +5864,12 @@
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5884,12 +5880,12 @@
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5900,12 +5896,12 @@
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="86">
@@ -5916,12 +5912,12 @@
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="87">
@@ -5932,12 +5928,12 @@
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="88">
@@ -5948,12 +5944,12 @@
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="89">
@@ -5964,12 +5960,12 @@
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="90">
@@ -5980,12 +5976,12 @@
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="91">
@@ -5996,12 +5992,12 @@
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="92">
@@ -6012,12 +6008,12 @@
       </c>
       <c r="C33" s="76"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="93">
@@ -6028,12 +6024,12 @@
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="94">
@@ -6044,12 +6040,12 @@
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6060,12 +6056,12 @@
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="86">
@@ -6076,12 +6072,12 @@
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="87">
@@ -6092,12 +6088,12 @@
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="88">
@@ -6108,12 +6104,12 @@
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="89">
@@ -6124,12 +6120,12 @@
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="90">
@@ -6140,12 +6136,12 @@
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="91">
@@ -6156,32 +6152,23 @@
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6197,14 +6184,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6248,10 +6244,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6281,8 +6277,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6425,7 +6421,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="175" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J12" s="176"/>
     </row>
@@ -6829,11 +6825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6858,13 +6854,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6877,7 +6873,7 @@
       </c>
       <c r="I1" s="188"/>
       <c r="J1" s="189" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K1" s="190"/>
       <c r="L1" s="191"/>
@@ -6896,11 +6892,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6940,7 +6936,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7400,10 +7396,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="126"/>
       <c r="H16" s="40"/>
@@ -7415,7 +7411,7 @@
       <c r="N16" s="40"/>
       <c r="O16" s="126"/>
       <c r="P16" s="126" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="22.5">
@@ -7432,10 +7428,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" s="126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" s="126"/>
       <c r="H17" s="40"/>
@@ -7447,7 +7443,7 @@
       <c r="N17" s="40"/>
       <c r="O17" s="126"/>
       <c r="P17" s="126" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -9215,7 +9211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9250,7 +9246,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
+      <c r="A2" s="195"/>
       <c r="B2" s="120"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9298,15 +9294,15 @@
       <c r="E4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="165"/>
+      <c r="H4" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -9316,11 +9312,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="124"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="194"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="198"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9330,11 +9326,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="198"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9344,11 +9340,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9358,11 +9354,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9372,11 +9368,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9386,11 +9382,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9400,11 +9396,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9414,11 +9410,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9428,11 +9424,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9442,11 +9438,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9456,11 +9452,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="198"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9470,11 +9466,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9484,11 +9480,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9498,11 +9494,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="198"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9512,11 +9508,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9526,11 +9522,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9540,11 +9536,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9554,11 +9550,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9568,11 +9564,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9582,11 +9578,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9596,11 +9592,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9610,11 +9606,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9624,11 +9620,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="198"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9638,11 +9634,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9652,11 +9648,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9666,11 +9662,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9680,11 +9676,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9694,11 +9690,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9715,11 +9711,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9736,11 +9732,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9757,11 +9753,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9778,11 +9774,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9799,11 +9795,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9820,11 +9816,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9841,11 +9837,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="198"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9862,11 +9858,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9883,11 +9879,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9904,11 +9900,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9925,11 +9921,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9946,11 +9942,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="198"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9967,11 +9963,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9988,11 +9984,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="198"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10009,11 +10005,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10030,11 +10026,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="198"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10051,11 +10047,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="192"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10072,11 +10068,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="198"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10093,11 +10089,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="192"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10114,11 +10110,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="198"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10135,11 +10131,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="192"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10156,11 +10152,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="192"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="198"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10177,11 +10173,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="192"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="198"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10198,11 +10194,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="196"/>
+      <c r="I56" s="197"/>
+      <c r="J56" s="198"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10214,25 +10210,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10247,80 +10298,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10338,8 +10334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10369,24 +10365,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="199" t="str">
+      <c r="J1" s="202" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="199"/>
+      <c r="K1" s="202"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10413,22 +10409,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="199" t="str">
+      <c r="J2" s="202" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="199"/>
+      <c r="K2" s="202"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10462,7 +10458,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="67" t="s">
         <v>97</v>
@@ -10527,31 +10523,31 @@
         <v>186</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J5" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="161" t="s">
+      <c r="K5" s="162" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="134" t="s">
-        <v>193</v>
-      </c>
-      <c r="P5" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" s="135" t="s">
+      <c r="P5" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="134" t="s">
         <v>188</v>
       </c>
       <c r="R5" s="128" t="s">
         <v>189</v>
       </c>
       <c r="S5" s="133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
@@ -10569,10 +10565,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="202"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="201"/>
       <c r="O6" s="83"/>
       <c r="P6" s="84"/>
       <c r="Q6" s="73"/>
@@ -10594,10 +10590,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="78"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="202"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="84"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="73"/>
@@ -10619,10 +10615,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="202"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="201"/>
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="73"/>
@@ -10644,10 +10640,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="202"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="84"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="73"/>
@@ -10669,10 +10665,10 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="202"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="73"/>
@@ -10687,16 +10683,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048142:Q1048576 Q5:Q10"/>
@@ -10742,10 +10738,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10775,8 +10771,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10834,7 +10830,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -10915,7 +10911,7 @@
       <c r="A12" s="77"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -11001,7 +10997,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -11355,7 +11351,7 @@
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="77"/>
       <c r="C49" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
@@ -11852,10 +11848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11885,8 +11881,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -3201,114 +3201,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3370,6 +3370,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3381,14 +3390,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3398,9 +3401,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3494,20 +3494,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3527,8 +3527,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="600075"/>
-          <a:ext cx="8934450" cy="4076700"/>
+          <a:off x="1257300" y="628650"/>
+          <a:ext cx="6038850" cy="3019425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4339,65 +4339,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="149" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="148" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="148" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="144" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="112"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
       <c r="M13" s="113"/>
@@ -4408,56 +4408,56 @@
       <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="114"/>
       <c r="L16" s="114"/>
       <c r="M16" s="114"/>
@@ -4468,384 +4468,384 @@
       <c r="R16" s="114"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="137"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="137"/>
-      <c r="AZ28" s="137"/>
-      <c r="BA28" s="137"/>
-      <c r="BB28" s="137"/>
-      <c r="BC28" s="137"/>
-      <c r="BD28" s="137"/>
-      <c r="BE28" s="137"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="137"/>
-      <c r="BL28" s="137"/>
-      <c r="BM28" s="137"/>
-      <c r="BN28" s="137"/>
-      <c r="BO28" s="137"/>
-      <c r="BP28" s="137"/>
-      <c r="BQ28" s="137"/>
-      <c r="BR28" s="137"/>
-      <c r="BS28" s="137"/>
-      <c r="BT28" s="137"/>
-      <c r="BU28" s="137"/>
-      <c r="BV28" s="137"/>
-      <c r="BW28" s="137"/>
-      <c r="BX28" s="137"/>
-      <c r="BY28" s="137"/>
-      <c r="BZ28" s="137"/>
-      <c r="CA28" s="137"/>
-      <c r="CB28" s="137"/>
-      <c r="CC28" s="137"/>
-      <c r="CD28" s="137"/>
-      <c r="CE28" s="137"/>
-      <c r="CF28" s="137"/>
-      <c r="CG28" s="137"/>
-      <c r="CH28" s="137"/>
-      <c r="CI28" s="137"/>
-      <c r="CJ28" s="137"/>
-      <c r="CK28" s="137"/>
-      <c r="CL28" s="137"/>
-      <c r="CM28" s="137"/>
-      <c r="CN28" s="137"/>
-      <c r="CO28" s="137"/>
-      <c r="CP28" s="137"/>
-      <c r="CQ28" s="137"/>
-      <c r="CR28" s="137"/>
-      <c r="CS28" s="137"/>
-      <c r="CT28" s="137"/>
-      <c r="CU28" s="137"/>
-      <c r="CV28" s="137"/>
-      <c r="CW28" s="137"/>
-      <c r="CX28" s="137"/>
-      <c r="CY28" s="137"/>
-      <c r="CZ28" s="137"/>
-      <c r="DA28" s="137"/>
-      <c r="DB28" s="137"/>
-      <c r="DC28" s="137"/>
-      <c r="DD28" s="137"/>
-      <c r="DE28" s="137"/>
-      <c r="DF28" s="137"/>
-      <c r="DG28" s="137"/>
-      <c r="DH28" s="137"/>
-      <c r="DI28" s="137"/>
-      <c r="DJ28" s="137"/>
-      <c r="DK28" s="137"/>
-      <c r="DL28" s="137"/>
-      <c r="DM28" s="137"/>
-      <c r="DN28" s="137"/>
-      <c r="DO28" s="137"/>
-      <c r="DP28" s="137"/>
-      <c r="DQ28" s="137"/>
-      <c r="DR28" s="137"/>
-      <c r="DS28" s="137"/>
-      <c r="DT28" s="137"/>
-      <c r="DU28" s="137"/>
-      <c r="DV28" s="137"/>
-      <c r="DW28" s="137"/>
-      <c r="DX28" s="137"/>
-      <c r="DY28" s="137"/>
-      <c r="DZ28" s="137"/>
-      <c r="EA28" s="137"/>
-      <c r="EB28" s="137"/>
-      <c r="EC28" s="137"/>
-      <c r="ED28" s="137"/>
-      <c r="EE28" s="137"/>
-      <c r="EF28" s="137"/>
-      <c r="EG28" s="137"/>
-      <c r="EH28" s="137"/>
-      <c r="EI28" s="137"/>
-      <c r="EJ28" s="137"/>
-      <c r="EK28" s="137"/>
-      <c r="EL28" s="137"/>
-      <c r="EM28" s="137"/>
-      <c r="EN28" s="137"/>
-      <c r="EO28" s="137"/>
-      <c r="EP28" s="137"/>
-      <c r="EQ28" s="137"/>
-      <c r="ER28" s="137"/>
-      <c r="ES28" s="137"/>
-      <c r="ET28" s="137"/>
-      <c r="EU28" s="137"/>
-      <c r="EV28" s="137"/>
-      <c r="EW28" s="137"/>
-      <c r="EX28" s="137"/>
-      <c r="EY28" s="137"/>
-      <c r="EZ28" s="137"/>
-      <c r="FA28" s="137"/>
-      <c r="FB28" s="137"/>
-      <c r="FC28" s="137"/>
-      <c r="FD28" s="137"/>
-      <c r="FE28" s="137"/>
-      <c r="FF28" s="137"/>
-      <c r="FG28" s="137"/>
-      <c r="FH28" s="137"/>
-      <c r="FI28" s="137"/>
-      <c r="FJ28" s="137"/>
-      <c r="FK28" s="137"/>
-      <c r="FL28" s="137"/>
-      <c r="FM28" s="137"/>
-      <c r="FN28" s="137"/>
-      <c r="FO28" s="137"/>
-      <c r="FP28" s="137"/>
-      <c r="FQ28" s="137"/>
-      <c r="FR28" s="137"/>
-      <c r="FS28" s="137"/>
-      <c r="FT28" s="137"/>
-      <c r="FU28" s="137"/>
-      <c r="FV28" s="137"/>
-      <c r="FW28" s="137"/>
-      <c r="FX28" s="137"/>
-      <c r="FY28" s="137"/>
-      <c r="FZ28" s="137"/>
-      <c r="GA28" s="137"/>
-      <c r="GB28" s="137"/>
-      <c r="GC28" s="137"/>
-      <c r="GD28" s="137"/>
-      <c r="GE28" s="137"/>
-      <c r="GF28" s="137"/>
-      <c r="GG28" s="137"/>
-      <c r="GH28" s="137"/>
-      <c r="GI28" s="137"/>
-      <c r="GJ28" s="137"/>
-      <c r="GK28" s="137"/>
-      <c r="GL28" s="137"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="115"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="136"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="116"/>
       <c r="L30" s="116"/>
       <c r="M30" s="116"/>
@@ -4856,16 +4856,16 @@
       <c r="R30" s="116"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="116"/>
       <c r="L31" s="116"/>
       <c r="M31" s="116"/>
@@ -4877,6 +4877,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4890,28 +4912,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5466,10 +5466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5496,8 +5496,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5536,14 +5536,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="129">
@@ -5558,14 +5558,14 @@
       <c r="D5" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="166" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="86">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="C6" s="75"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="87">
@@ -5592,12 +5592,12 @@
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="88">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="89">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="90">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="91">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="92">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="93">
@@ -5688,12 +5688,12 @@
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="94">
@@ -5704,12 +5704,12 @@
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5720,12 +5720,12 @@
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="86">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="87">
@@ -5752,12 +5752,12 @@
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="88">
@@ -5768,12 +5768,12 @@
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="89">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="90">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="91">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="92">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="C22" s="76"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="93">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="94">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5880,12 +5880,12 @@
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="86">
@@ -5912,12 +5912,12 @@
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="87">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="88">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="89">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="90">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="91">
@@ -5992,12 +5992,12 @@
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="92">
@@ -6008,12 +6008,12 @@
       </c>
       <c r="C33" s="76"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="93">
@@ -6024,12 +6024,12 @@
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="94">
@@ -6040,12 +6040,12 @@
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6056,12 +6056,12 @@
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="86">
@@ -6072,12 +6072,12 @@
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="87">
@@ -6088,12 +6088,12 @@
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="88">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="89">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="90">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="91">
@@ -6152,23 +6152,32 @@
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6184,23 +6193,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6226,7 +6226,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6244,10 +6244,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6277,8 +6277,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6854,13 +6854,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6892,11 +6892,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9211,7 +9211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9246,7 +9246,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
+      <c r="A2" s="198"/>
       <c r="B2" s="120"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9294,15 +9294,15 @@
       <c r="E4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="165" t="s">
+      <c r="F4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -9312,11 +9312,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="124"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="198"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="194"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9326,11 +9326,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="198"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9340,11 +9340,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9354,11 +9354,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9368,11 +9368,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9382,11 +9382,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9396,11 +9396,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="198"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9410,11 +9410,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9424,11 +9424,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9438,11 +9438,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9452,11 +9452,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="198"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="194"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9466,11 +9466,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9480,11 +9480,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9494,11 +9494,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="198"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9508,11 +9508,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9522,11 +9522,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="198"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9536,11 +9536,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="198"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="194"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9550,11 +9550,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="198"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9564,11 +9564,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="198"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="194"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9578,11 +9578,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="198"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="194"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9592,11 +9592,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="198"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9606,11 +9606,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="198"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="194"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9620,11 +9620,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="198"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="194"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9634,11 +9634,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9648,11 +9648,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="198"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9662,11 +9662,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="198"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9676,11 +9676,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="198"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9690,11 +9690,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="198"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9711,11 +9711,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="198"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9732,11 +9732,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="198"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9753,11 +9753,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="198"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9774,11 +9774,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="198"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9795,11 +9795,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="198"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9816,11 +9816,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="196"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="198"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9837,11 +9837,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="196"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="198"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9858,11 +9858,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="198"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9879,11 +9879,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="198"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9900,11 +9900,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9921,11 +9921,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="198"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="194"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9942,11 +9942,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="159"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="198"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9963,11 +9963,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="196"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="198"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9984,11 +9984,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="198"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10005,11 +10005,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="159"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="198"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10026,11 +10026,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="198"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="192"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10047,11 +10047,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="198"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="192"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="194"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10068,11 +10068,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="198"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="194"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10089,11 +10089,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="159"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="192"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10110,11 +10110,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="198"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="194"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10131,11 +10131,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="192"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="194"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10152,11 +10152,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="198"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="192"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="194"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10173,11 +10173,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="197"/>
-      <c r="J55" s="198"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="194"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10194,11 +10194,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="196"/>
-      <c r="I56" s="197"/>
-      <c r="J56" s="198"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10210,6 +10210,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10224,99 +10317,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10334,8 +10334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10365,24 +10365,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="202" t="str">
+      <c r="J1" s="199" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="202"/>
+      <c r="K1" s="199"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10409,22 +10409,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="202" t="str">
+      <c r="J2" s="199" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="202"/>
+      <c r="K2" s="199"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10528,12 +10528,12 @@
       <c r="J5" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="163"/>
       <c r="O5" s="135" t="s">
         <v>209</v>
       </c>
@@ -10565,10 +10565,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="201"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="202"/>
       <c r="O6" s="83"/>
       <c r="P6" s="84"/>
       <c r="Q6" s="73"/>
@@ -10590,10 +10590,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="78"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="201"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="202"/>
       <c r="O7" s="84"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="73"/>
@@ -10615,10 +10615,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="201"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="202"/>
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="73"/>
@@ -10640,10 +10640,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="201"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="202"/>
       <c r="O9" s="84"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="73"/>
@@ -10665,10 +10665,10 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="201"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="202"/>
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="73"/>
@@ -10683,16 +10683,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048142:Q1048576 Q5:Q10"/>
@@ -10721,7 +10721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -10738,10 +10738,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10771,8 +10771,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11848,10 +11848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11881,8 +11881,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang ngung su dung/CRMR30201_Bao cao khach hang ngung su dung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang ngung su dung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="215">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2204,12 +2204,6 @@
     <t>OrderDate</t>
   </si>
   <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
-    <t>ObjectName</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -2259,9 +2253,6 @@
   </si>
   <si>
     <t>DivivsionID</t>
-  </si>
-  <si>
-    <t>DivisionID</t>
   </si>
   <si>
     <t xml:space="preserve">Tạo tài liệu mới Customize Hoàng Trần
@@ -2337,6 +2328,27 @@
 @@FromAccountID @@ToAccountID
 Biến môi trường
 </t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng cộng </t>
+  </si>
+  <si>
+    <t>SumDivisionID</t>
   </si>
 </sst>
 </file>
@@ -2862,7 +2874,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3201,9 +3213,33 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3249,23 +3285,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3306,9 +3327,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3369,6 +3387,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3378,29 +3420,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3494,20 +3524,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3527,8 +3557,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1257300" y="628650"/>
-          <a:ext cx="6038850" cy="3019425"/>
+          <a:off x="590550" y="971550"/>
+          <a:ext cx="7591425" cy="2905125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4339,65 +4369,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="150"/>
+      <c r="I1" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="112"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
       <c r="M13" s="113"/>
@@ -4408,56 +4438,56 @@
       <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="114"/>
       <c r="L16" s="114"/>
       <c r="M16" s="114"/>
@@ -4468,384 +4498,384 @@
       <c r="R16" s="114"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
+      <c r="AN28" s="139"/>
+      <c r="AO28" s="139"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="139"/>
+      <c r="AR28" s="139"/>
+      <c r="AS28" s="139"/>
+      <c r="AT28" s="139"/>
+      <c r="AU28" s="139"/>
+      <c r="AV28" s="139"/>
+      <c r="AW28" s="139"/>
+      <c r="AX28" s="139"/>
+      <c r="AY28" s="139"/>
+      <c r="AZ28" s="139"/>
+      <c r="BA28" s="139"/>
+      <c r="BB28" s="139"/>
+      <c r="BC28" s="139"/>
+      <c r="BD28" s="139"/>
+      <c r="BE28" s="139"/>
+      <c r="BF28" s="139"/>
+      <c r="BG28" s="139"/>
+      <c r="BH28" s="139"/>
+      <c r="BI28" s="139"/>
+      <c r="BJ28" s="139"/>
+      <c r="BK28" s="139"/>
+      <c r="BL28" s="139"/>
+      <c r="BM28" s="139"/>
+      <c r="BN28" s="139"/>
+      <c r="BO28" s="139"/>
+      <c r="BP28" s="139"/>
+      <c r="BQ28" s="139"/>
+      <c r="BR28" s="139"/>
+      <c r="BS28" s="139"/>
+      <c r="BT28" s="139"/>
+      <c r="BU28" s="139"/>
+      <c r="BV28" s="139"/>
+      <c r="BW28" s="139"/>
+      <c r="BX28" s="139"/>
+      <c r="BY28" s="139"/>
+      <c r="BZ28" s="139"/>
+      <c r="CA28" s="139"/>
+      <c r="CB28" s="139"/>
+      <c r="CC28" s="139"/>
+      <c r="CD28" s="139"/>
+      <c r="CE28" s="139"/>
+      <c r="CF28" s="139"/>
+      <c r="CG28" s="139"/>
+      <c r="CH28" s="139"/>
+      <c r="CI28" s="139"/>
+      <c r="CJ28" s="139"/>
+      <c r="CK28" s="139"/>
+      <c r="CL28" s="139"/>
+      <c r="CM28" s="139"/>
+      <c r="CN28" s="139"/>
+      <c r="CO28" s="139"/>
+      <c r="CP28" s="139"/>
+      <c r="CQ28" s="139"/>
+      <c r="CR28" s="139"/>
+      <c r="CS28" s="139"/>
+      <c r="CT28" s="139"/>
+      <c r="CU28" s="139"/>
+      <c r="CV28" s="139"/>
+      <c r="CW28" s="139"/>
+      <c r="CX28" s="139"/>
+      <c r="CY28" s="139"/>
+      <c r="CZ28" s="139"/>
+      <c r="DA28" s="139"/>
+      <c r="DB28" s="139"/>
+      <c r="DC28" s="139"/>
+      <c r="DD28" s="139"/>
+      <c r="DE28" s="139"/>
+      <c r="DF28" s="139"/>
+      <c r="DG28" s="139"/>
+      <c r="DH28" s="139"/>
+      <c r="DI28" s="139"/>
+      <c r="DJ28" s="139"/>
+      <c r="DK28" s="139"/>
+      <c r="DL28" s="139"/>
+      <c r="DM28" s="139"/>
+      <c r="DN28" s="139"/>
+      <c r="DO28" s="139"/>
+      <c r="DP28" s="139"/>
+      <c r="DQ28" s="139"/>
+      <c r="DR28" s="139"/>
+      <c r="DS28" s="139"/>
+      <c r="DT28" s="139"/>
+      <c r="DU28" s="139"/>
+      <c r="DV28" s="139"/>
+      <c r="DW28" s="139"/>
+      <c r="DX28" s="139"/>
+      <c r="DY28" s="139"/>
+      <c r="DZ28" s="139"/>
+      <c r="EA28" s="139"/>
+      <c r="EB28" s="139"/>
+      <c r="EC28" s="139"/>
+      <c r="ED28" s="139"/>
+      <c r="EE28" s="139"/>
+      <c r="EF28" s="139"/>
+      <c r="EG28" s="139"/>
+      <c r="EH28" s="139"/>
+      <c r="EI28" s="139"/>
+      <c r="EJ28" s="139"/>
+      <c r="EK28" s="139"/>
+      <c r="EL28" s="139"/>
+      <c r="EM28" s="139"/>
+      <c r="EN28" s="139"/>
+      <c r="EO28" s="139"/>
+      <c r="EP28" s="139"/>
+      <c r="EQ28" s="139"/>
+      <c r="ER28" s="139"/>
+      <c r="ES28" s="139"/>
+      <c r="ET28" s="139"/>
+      <c r="EU28" s="139"/>
+      <c r="EV28" s="139"/>
+      <c r="EW28" s="139"/>
+      <c r="EX28" s="139"/>
+      <c r="EY28" s="139"/>
+      <c r="EZ28" s="139"/>
+      <c r="FA28" s="139"/>
+      <c r="FB28" s="139"/>
+      <c r="FC28" s="139"/>
+      <c r="FD28" s="139"/>
+      <c r="FE28" s="139"/>
+      <c r="FF28" s="139"/>
+      <c r="FG28" s="139"/>
+      <c r="FH28" s="139"/>
+      <c r="FI28" s="139"/>
+      <c r="FJ28" s="139"/>
+      <c r="FK28" s="139"/>
+      <c r="FL28" s="139"/>
+      <c r="FM28" s="139"/>
+      <c r="FN28" s="139"/>
+      <c r="FO28" s="139"/>
+      <c r="FP28" s="139"/>
+      <c r="FQ28" s="139"/>
+      <c r="FR28" s="139"/>
+      <c r="FS28" s="139"/>
+      <c r="FT28" s="139"/>
+      <c r="FU28" s="139"/>
+      <c r="FV28" s="139"/>
+      <c r="FW28" s="139"/>
+      <c r="FX28" s="139"/>
+      <c r="FY28" s="139"/>
+      <c r="FZ28" s="139"/>
+      <c r="GA28" s="139"/>
+      <c r="GB28" s="139"/>
+      <c r="GC28" s="139"/>
+      <c r="GD28" s="139"/>
+      <c r="GE28" s="139"/>
+      <c r="GF28" s="139"/>
+      <c r="GG28" s="139"/>
+      <c r="GH28" s="139"/>
+      <c r="GI28" s="139"/>
+      <c r="GJ28" s="139"/>
+      <c r="GK28" s="139"/>
+      <c r="GL28" s="139"/>
       <c r="GM28" s="115"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
       <c r="K30" s="116"/>
       <c r="L30" s="116"/>
       <c r="M30" s="116"/>
@@ -4856,16 +4886,16 @@
       <c r="R30" s="116"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
       <c r="K31" s="116"/>
       <c r="L31" s="116"/>
       <c r="M31" s="116"/>
@@ -4877,28 +4907,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4912,6 +4920,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4938,14 +4968,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5138,11 +5168,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="212"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5466,10 +5496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5480,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5496,8 +5526,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5508,7 +5538,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5536,14 +5566,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="129">
@@ -5558,14 +5588,14 @@
       <c r="D5" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="E5" s="169" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="86">
@@ -5576,12 +5606,12 @@
       </c>
       <c r="C6" s="75"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="87">
@@ -5592,12 +5622,12 @@
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="88">
@@ -5608,12 +5638,12 @@
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="89">
@@ -5624,12 +5654,12 @@
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="90">
@@ -5640,12 +5670,12 @@
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="91">
@@ -5656,12 +5686,12 @@
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="92">
@@ -5672,12 +5702,12 @@
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="93">
@@ -5688,12 +5718,12 @@
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="94">
@@ -5704,12 +5734,12 @@
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5720,12 +5750,12 @@
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="86">
@@ -5736,12 +5766,12 @@
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="87">
@@ -5752,12 +5782,12 @@
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="88">
@@ -5768,12 +5798,12 @@
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="89">
@@ -5784,12 +5814,12 @@
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="90">
@@ -5800,12 +5830,12 @@
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="91">
@@ -5816,12 +5846,12 @@
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="92">
@@ -5832,12 +5862,12 @@
       </c>
       <c r="C22" s="76"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="93">
@@ -5848,12 +5878,12 @@
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="94">
@@ -5864,12 +5894,12 @@
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5880,12 +5910,12 @@
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5896,12 +5926,12 @@
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="86">
@@ -5912,12 +5942,12 @@
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="87">
@@ -5928,12 +5958,12 @@
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="88">
@@ -5944,12 +5974,12 @@
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="89">
@@ -5960,12 +5990,12 @@
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="90">
@@ -5976,12 +6006,12 @@
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="91">
@@ -5992,12 +6022,12 @@
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="92">
@@ -6008,12 +6038,12 @@
       </c>
       <c r="C33" s="76"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="93">
@@ -6024,12 +6054,12 @@
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="94">
@@ -6040,12 +6070,12 @@
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6056,12 +6086,12 @@
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="86">
@@ -6072,12 +6102,12 @@
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="87">
@@ -6088,12 +6118,12 @@
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="88">
@@ -6104,12 +6134,12 @@
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="89">
@@ -6120,12 +6150,12 @@
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="90">
@@ -6136,12 +6166,12 @@
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="91">
@@ -6152,32 +6182,23 @@
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6193,14 +6214,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6225,7 +6255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6244,10 +6274,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6277,8 +6307,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6308,20 +6338,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="172" t="s">
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6332,10 +6362,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="183" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="182"/>
+      <c r="J5" s="184"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6346,8 +6376,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6358,8 +6388,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6370,8 +6400,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6382,8 +6412,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="184"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6394,8 +6424,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6406,10 +6436,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="172" t="s">
+      <c r="I11" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="173"/>
+      <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6420,10 +6450,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="175" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="176"/>
+      <c r="I12" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="178"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6434,8 +6464,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="178"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6446,8 +6476,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6458,8 +6488,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6470,8 +6500,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6482,8 +6512,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="178"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6494,8 +6524,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="178"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6506,8 +6536,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="178"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6518,8 +6548,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="178"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6530,8 +6560,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="178"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6542,8 +6572,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6554,8 +6584,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="178"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6566,8 +6596,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="178"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6578,8 +6608,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6590,8 +6620,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6602,8 +6632,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="178"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6614,8 +6644,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="178"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6626,8 +6656,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="178"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6638,8 +6668,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="178"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6650,8 +6680,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6662,8 +6692,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="178"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6674,8 +6704,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="178"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6686,8 +6716,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="178"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6698,8 +6728,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="178"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="180"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6710,8 +6740,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="178"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6722,8 +6752,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="178"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6734,8 +6764,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="178"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6746,8 +6776,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="178"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6758,8 +6788,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="178"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6770,8 +6800,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="178"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="180"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6782,8 +6812,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6794,8 +6824,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6823,13 +6853,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6854,13 +6884,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6868,15 +6898,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="187" t="s">
+      <c r="H1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="190"/>
-      <c r="L1" s="191"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="192"/>
+      <c r="L1" s="193"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6892,11 +6922,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6904,16 +6934,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="187" t="s">
+      <c r="H2" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189" t="str">
+      <c r="I2" s="190"/>
+      <c r="J2" s="191" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng ngưng sử dụng</v>
       </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="191"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="193"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6936,7 +6966,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7013,76 +7043,74 @@
       <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A6" s="33">
+      <c r="A6" s="194">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="194" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="194">
         <v>51</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="194">
         <v>2</v>
       </c>
-      <c r="E6" s="122" t="s">
-        <v>190</v>
+      <c r="E6" s="196" t="s">
+        <v>188</v>
       </c>
       <c r="F6" s="125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G6" s="125" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>179</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>181</v>
       </c>
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
       <c r="L6" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="125"/>
       <c r="N6" s="125"/>
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
     </row>
-    <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="33">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="33">
-        <v>51</v>
-      </c>
-      <c r="D7" s="33">
-        <v>3</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="83"/>
+    <row r="7" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="195"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="136" t="s">
+        <v>208</v>
+      </c>
       <c r="H7" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="40"/>
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="83"/>
+      <c r="L7" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>163</v>
@@ -7091,34 +7119,28 @@
         <v>51</v>
       </c>
       <c r="D8" s="33">
-        <v>3.1</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>164</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E8" s="59"/>
       <c r="F8" s="83" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>182</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I8" s="40"/>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
-      <c r="L8" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="83"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>163</v>
@@ -7127,36 +7149,36 @@
         <v>51</v>
       </c>
       <c r="D9" s="33">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>9</v>
       </c>
       <c r="H9" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>180</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>183</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
       <c r="L9" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+        <v>182</v>
+      </c>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
       <c r="P9" s="83"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>163</v>
@@ -7165,19 +7187,19 @@
         <v>51</v>
       </c>
       <c r="D10" s="33">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>181</v>
@@ -7185,16 +7207,16 @@
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
       <c r="L10" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
+        <v>182</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
       <c r="P10" s="83"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>163</v>
@@ -7203,36 +7225,36 @@
         <v>51</v>
       </c>
       <c r="D11" s="33">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="G11" s="121" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
+        <v>182</v>
+      </c>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="83"/>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>163</v>
@@ -7241,36 +7263,36 @@
         <v>51</v>
       </c>
       <c r="D12" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="E12" s="122" t="s">
-        <v>167</v>
+        <v>3.4</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>166</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="G12" s="121" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="79"/>
+        <v>182</v>
+      </c>
+      <c r="M12" s="68"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
       <c r="P12" s="83"/>
     </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="11.25">
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>163</v>
@@ -7279,36 +7301,36 @@
         <v>51</v>
       </c>
       <c r="D13" s="33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E13" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G13" s="121" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M13" s="85"/>
+        <v>182</v>
+      </c>
+      <c r="M13" s="79"/>
       <c r="N13" s="68"/>
       <c r="O13" s="68"/>
       <c r="P13" s="83"/>
     </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A14" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>163</v>
@@ -7317,27 +7339,27 @@
         <v>51</v>
       </c>
       <c r="D14" s="33">
-        <v>3.7</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>169</v>
+        <v>3.6</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>168</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H14" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>180</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>181</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
       <c r="L14" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M14" s="85"/>
       <c r="N14" s="68"/>
@@ -7346,7 +7368,7 @@
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>163</v>
@@ -7355,36 +7377,36 @@
         <v>51</v>
       </c>
       <c r="D15" s="33">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="I15" s="40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
       <c r="L15" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" s="61"/>
+        <v>182</v>
+      </c>
+      <c r="M15" s="85"/>
       <c r="N15" s="68"/>
       <c r="O15" s="68"/>
       <c r="P15" s="83"/>
     </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="22.5">
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>163</v>
@@ -7393,30 +7415,36 @@
         <v>51</v>
       </c>
       <c r="D16" s="33">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="34" customFormat="1" ht="22.5">
+        <v>170</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="83"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>163</v>
@@ -7425,70 +7453,102 @@
         <v>51</v>
       </c>
       <c r="D17" s="33">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+        <v>213</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+    </row>
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A18" s="33">
-        <v>15</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="33">
+        <v>51</v>
+      </c>
+      <c r="D18" s="33">
+        <v>4</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="126"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="I18" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="83"/>
-    </row>
-    <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O18" s="126"/>
+      <c r="P18" s="126" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A19" s="33">
-        <v>15</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="80"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="33">
+        <v>51</v>
+      </c>
+      <c r="D19" s="33">
+        <v>5</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="126"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="I19" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="83"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -7508,14 +7568,14 @@
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="59"/>
       <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
@@ -7523,12 +7583,12 @@
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="68"/>
+      <c r="O21" s="79"/>
       <c r="P21" s="83"/>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -7543,12 +7603,12 @@
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="83"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="83"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -7568,74 +7628,74 @@
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="59"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="32"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="59"/>
       <c r="F25" s="83"/>
-      <c r="G25" s="79"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="60"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="32"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="83"/>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="40"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
       <c r="K26" s="60"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="61"/>
+      <c r="M26" s="60"/>
       <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="40"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -7648,13 +7708,13 @@
     </row>
     <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -7668,7 +7728,7 @@
     </row>
     <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -7688,7 +7748,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -7708,7 +7768,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -7728,7 +7788,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -7748,7 +7808,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -7768,7 +7828,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -7788,7 +7848,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7808,7 +7868,7 @@
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7828,7 +7888,7 @@
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7848,7 +7908,7 @@
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7868,7 +7928,7 @@
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7888,7 +7948,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7908,7 +7968,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7928,7 +7988,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7948,7 +8008,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -7968,7 +8028,7 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -7988,7 +8048,7 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -8008,7 +8068,7 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -8028,7 +8088,7 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -8048,14 +8108,14 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -8068,13 +8128,13 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
@@ -8088,7 +8148,7 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -8108,7 +8168,7 @@
     </row>
     <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -8128,14 +8188,14 @@
     </row>
     <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="71"/>
       <c r="F52" s="71"/>
-      <c r="G52" s="40"/>
+      <c r="G52" s="71"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
@@ -8148,7 +8208,7 @@
     </row>
     <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -8168,7 +8228,7 @@
     </row>
     <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -8186,8 +8246,53 @@
       <c r="O54" s="60"/>
       <c r="P54" s="32"/>
     </row>
+    <row r="55" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="33">
+        <v>49</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="32"/>
+    </row>
+    <row r="56" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A56" s="33">
+        <v>50</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -8195,20 +8300,20 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N27:O56 M26:N26">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I54 I5:I16 I18:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24:I56 I5:I21">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G26:G54 G5:G6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15 H18:H54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G28:G56 G5:G7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H17 H20:H56">
       <formula1>"Caption,Textbox,DateTimePicker,GridColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H19">
       <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L56">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9211,7 +9316,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9246,7 +9351,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
+      <c r="A2" s="201"/>
       <c r="B2" s="120"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9294,15 +9399,15 @@
       <c r="E4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="167"/>
+      <c r="H4" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="33">
@@ -9312,11 +9417,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="124"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="194"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="204"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9326,11 +9431,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9340,11 +9445,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="204"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9354,11 +9459,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9368,11 +9473,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="204"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9382,11 +9487,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9396,11 +9501,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9410,11 +9515,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9424,11 +9529,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9438,11 +9543,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9452,11 +9557,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9466,11 +9571,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9480,11 +9585,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9494,11 +9599,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9508,11 +9613,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9522,11 +9627,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9536,11 +9641,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9550,11 +9655,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9564,11 +9669,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9578,11 +9683,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9592,11 +9697,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9606,11 +9711,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9620,11 +9725,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9634,11 +9739,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9648,11 +9753,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9662,11 +9767,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9676,11 +9781,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9690,11 +9795,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9711,11 +9816,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9732,11 +9837,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9753,11 +9858,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9774,11 +9879,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9795,11 +9900,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9816,11 +9921,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9837,11 +9942,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9858,11 +9963,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="204"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9879,11 +9984,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9900,11 +10005,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="204"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9921,11 +10026,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="204"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9942,11 +10047,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="204"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9963,11 +10068,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="204"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9984,11 +10089,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="204"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10005,11 +10110,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="204"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10026,11 +10131,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="204"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10047,11 +10152,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="192"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="204"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10068,11 +10173,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="204"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10089,11 +10194,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="192"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="204"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10110,11 +10215,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="204"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10131,11 +10236,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="192"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="204"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10152,11 +10257,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="192"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="204"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10173,11 +10278,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="192"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="203"/>
+      <c r="J55" s="204"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10194,11 +10299,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="204"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10210,25 +10315,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10243,80 +10403,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10335,7 +10440,7 @@
   <dimension ref="A1:U1048142"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10365,24 +10470,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="199" t="str">
+      <c r="J1" s="208" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="199"/>
+      <c r="K1" s="208"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10409,22 +10514,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="199" t="str">
+      <c r="J2" s="208" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="199"/>
+      <c r="K2" s="208"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10458,7 +10563,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D4" s="67" t="s">
         <v>97</v>
@@ -10481,12 +10586,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="173"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="175"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10517,37 +10622,37 @@
       <c r="E5" s="35"/>
       <c r="F5" s="132"/>
       <c r="G5" s="133" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="K5" s="164" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="123" t="s">
+      <c r="R5" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="161" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="135" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" s="135" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="R5" s="128" t="s">
-        <v>189</v>
-      </c>
       <c r="S5" s="133" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
@@ -10565,10 +10670,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="202"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="207"/>
       <c r="O6" s="83"/>
       <c r="P6" s="84"/>
       <c r="Q6" s="73"/>
@@ -10590,10 +10695,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="78"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="202"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="207"/>
       <c r="O7" s="84"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="73"/>
@@ -10615,10 +10720,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="202"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="207"/>
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="73"/>
@@ -10640,10 +10745,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="202"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="207"/>
       <c r="O9" s="84"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="73"/>
@@ -10665,10 +10770,10 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="202"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="207"/>
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="73"/>
@@ -10683,16 +10788,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048142:Q1048576 Q5:Q10"/>
@@ -10721,7 +10826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -10738,10 +10843,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10771,8 +10876,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10830,7 +10935,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -10911,7 +11016,7 @@
       <c r="A12" s="77"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -10997,7 +11102,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -11351,7 +11456,7 @@
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="77"/>
       <c r="C49" s="43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
@@ -11848,10 +11953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11881,8 +11986,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
